--- a/biology/Zoologie/Hulsanpes/Hulsanpes.xlsx
+++ b/biology/Zoologie/Hulsanpes/Hulsanpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hulsanpes perlei
-Hulsanpes est un genre éteint de petits dinosaures théropodes de la famille des Dromaeosauridae[1] qui a été découvert en Mongolie, dans la formation de Barun Goyot datée de la fin du Crétacé supérieur, du campanien moyen au campanien supérieur il y a environ entre 83,5 au 70,6 million d'années Ma (millions d'années).
-Une seule espèce est rattachée au genre, Hulsanpes perlei, décrite par la paléontologue polonaise Halszka Osmólska en 1982[1].
+Hulsanpes est un genre éteint de petits dinosaures théropodes de la famille des Dromaeosauridae qui a été découvert en Mongolie, dans la formation de Barun Goyot datée de la fin du Crétacé supérieur, du campanien moyen au campanien supérieur il y a environ entre 83,5 au 70,6 million d'années Ma (millions d'années).
+Une seule espèce est rattachée au genre, Hulsanpes perlei, décrite par la paléontologue polonaise Halszka Osmólska en 1982.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre combine la localité mongole où les fossiles de l'animal ont été trouvés (Khulsan) et le mot latin pēs, « pied », pour donner « pied de Khulsan ». Le nom d'espèce rend hommage au paléontologue mongol Altangerel Perle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre combine la localité mongole où les fossiles de l'animal ont été trouvés (Khulsan) et le mot latin pēs, « pied », pour donner « pied de Khulsan ». Le nom d'espèce rend hommage au paléontologue mongol Altangerel Perle.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype, référencé « ZPAL MgD-I/173 », est constitué de métatarsiens et de phalanges d'orteil. Le plus long des os, un troisième métatarsien, mesure 4 centimètres.
 </t>
@@ -575,13 +591,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès sa création en 1982, Hulsanpes a été placé par son inventrice, Halszka Osmólska, dans la famille des Dromaeosauridae.
-En 2017, le paléontologue Andrea Cau et ses collègues décrivent un nouveau dromaeosauridé, Halszkaraptor qu'il place dans une nouvelle sous-famille, les Halszkaraptorinae, en compagnie de deux autres Dromaeosauridae basaux : Hulsanpes  et Mahakala[2].
-Leur cladogramme montre la position phylogénétique d'Hulsanpes en groupe frère avec le genre Mahakala[2].
-Le cladogramme suivant a été établi par Andrea Cau (d) et ses collègues en 2017[2] :
-Dans leurs analyses phylogénétiques, Lee et al. (2022) ont retrouvé Natovenator comme un membre dérivé des Halszkaraptorinae, Halszkaraptor étant le membre le plus basal du groupe. Le cladogramme ci-dessous montre les résultats de leurs analyses phylogénétiques[3] :
+En 2017, le paléontologue Andrea Cau et ses collègues décrivent un nouveau dromaeosauridé, Halszkaraptor qu'il place dans une nouvelle sous-famille, les Halszkaraptorinae, en compagnie de deux autres Dromaeosauridae basaux : Hulsanpes  et Mahakala.
+Leur cladogramme montre la position phylogénétique d'Hulsanpes en groupe frère avec le genre Mahakala.
+Le cladogramme suivant a été établi par Andrea Cau (d) et ses collègues en 2017 :
+Dans leurs analyses phylogénétiques, Lee et al. (2022) ont retrouvé Natovenator comme un membre dérivé des Halszkaraptorinae, Halszkaraptor étant le membre le plus basal du groupe. Le cladogramme ci-dessous montre les résultats de leurs analyses phylogénétiques :
 </t>
         </is>
       </c>
